--- a/fab/FP Interface Card.xlsx
+++ b/fab/FP Interface Card.xlsx
@@ -187,7 +187,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="14"/>
+        <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">
@@ -196,7 +196,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="15"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -307,9 +307,9 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
@@ -319,12 +319,12 @@
     </font>
     <font>
       <sz val="13"/>
-      <color indexed="14"/>
+      <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="15"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -509,8 +509,6 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="8a000000"/>
-      <rgbColor rgb="de000000"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1582,13 +1580,13 @@
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="20.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="85.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.9922" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.0859" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.1719" style="1" customWidth="1"/>
     <col min="5" max="5" width="46.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="51.1719" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.1719" style="1" customWidth="1"/>
-    <col min="8" max="9" width="31.5859" style="1" customWidth="1"/>
+    <col min="8" max="9" width="31.6719" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
